--- a/ValueSet-molicavc-sex-valueset.xlsx
+++ b/ValueSet-molicavc-sex-valueset.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/ValueSet/molicavc-sex-valueset</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-sex-valueset</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-15T15:21:17-03:00</t>
+    <t>2023-08-16T00:27:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-molicavc-sex-valueset.xlsx
+++ b/ValueSet-molicavc-sex-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T00:27:03-03:00</t>
+    <t>2023-08-25T01:55:28-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-molicavc-sex-valueset.xlsx
+++ b/ValueSet-molicavc-sex-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T01:55:28-03:00</t>
+    <t>2023-08-29T02:44:39-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-molicavc-sex-valueset.xlsx
+++ b/ValueSet-molicavc-sex-valueset.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Sex ValueSet</t>
+    <t>ValueSet of Sex based on ICHOM standard</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T02:44:39-03:00</t>
+    <t>2023-08-31T16:41:42-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Value set for the patient's sex at birth according to the ICHOM standard.</t>
+    <t>ValueSet for the patient's sex at birth according to the ICHOM standard.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-molicavc-sex-valueset.xlsx
+++ b/ValueSet-molicavc-sex-valueset.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from stroke" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from " r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T16:41:42-03:00</t>
+    <t>2023-09-08T18:23:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://connect.ichom.org/patient-centered-outcome-measures/stroke</t>
+    <t>https://connect.ichom.org/patient-centered-outcome-measures/stroke/sex/</t>
   </si>
 </sst>
 </file>
